--- a/Computer Science/PYAUTOGUI/Histogram.xlsx
+++ b/Computer Science/PYAUTOGUI/Histogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\PYAUTOGUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\Computer Science\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB20335-CBC9-4203-9ACA-162D4AE7ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D07FE-5454-46AE-95CD-F68AE26BD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,79 +479,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>632</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -560,7 +560,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -569,16 +569,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -590,10 +590,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -632,7 +632,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -665,7 +665,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -674,7 +674,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:H2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H1">
         <f>SUM(B1:B2000)</f>
-        <v>1080</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,8 +2537,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>561+71</f>
-        <v>632</v>
+        <f>239+29</f>
+        <v>268</v>
       </c>
       <c r="C2">
         <f>A2*B2-2*B2</f>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C2000)</f>
-        <v>3245</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,12 +2557,12 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>21+206</f>
-        <v>227</v>
+        <f>148+14</f>
+        <v>162</v>
       </c>
       <c r="C3">
         <f>A3*B3-2*B3</f>
-        <v>227</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2570,11 +2570,12 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <f>87+7</f>
+        <v>94</v>
       </c>
       <c r="C4">
         <f>A4*B4-2*B4</f>
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,11 +2583,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">A5*B5-2*B5</f>
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,11 +2595,11 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,11 +2607,11 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,11 +2619,11 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2630,11 +2631,11 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2642,11 +2643,11 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,11 +2655,11 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,11 +2667,11 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,11 +2679,11 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,11 +2691,11 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,11 +2703,11 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2714,11 +2715,11 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,11 +2727,11 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,11 +2739,11 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,11 +2751,11 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,11 +2775,11 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2786,11 +2787,11 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2798,11 +2799,11 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,11 +2823,11 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,11 +2835,11 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,11 +2871,11 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,11 +2907,11 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2918,11 +2919,11 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2930,11 +2931,11 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,11 +2943,11 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,11 +2991,11 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,11 +3004,11 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,11 +3173,11 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3315,11 +3316,11 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,11 +3355,11 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,11 +3849,11 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,11 +3992,11 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,11 +4629,11 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5629,11 +5630,11 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,11 +5929,11 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265">
         <f t="shared" si="8"/>
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -9191,11 +9192,11 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -22360,11 +22361,11 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1529">
         <f t="shared" si="46"/>
-        <v>1527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
@@ -22620,11 +22621,11 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1549">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.25">

--- a/Computer Science/PYAUTOGUI/Histogram.xlsx
+++ b/Computer Science/PYAUTOGUI/Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MuhammadShamaas\Projects_Github\Computer Science\PYAUTOGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D07FE-5454-46AE-95CD-F68AE26BD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139CB8C-C7D7-4912-9C54-E31AD74C8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,49 +479,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -533,13 +533,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -551,16 +551,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -569,34 +569,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -665,7 +665,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -692,7 +692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
@@ -2507,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H1">
         <f>SUM(B1:B2000)</f>
-        <v>685</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,8 +2537,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>239+29</f>
-        <v>268</v>
+        <f>522+71</f>
+        <v>593</v>
       </c>
       <c r="C2">
         <f>A2*B2-2*B2</f>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C2000)</f>
-        <v>4015</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,12 +2557,11 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>148+14</f>
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C3">
         <f>A3*B3-2*B3</f>
-        <v>162</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2570,12 +2569,11 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>87+7</f>
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C4">
         <f>A4*B4-2*B4</f>
-        <v>188</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,11 +2581,11 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">A5*B5-2*B5</f>
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,11 +2593,11 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,11 +2605,11 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,11 +2617,11 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2631,11 +2629,11 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2643,11 +2641,11 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,11 +2665,11 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,11 +2677,11 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2691,11 +2689,11 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2715,11 +2713,11 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,11 +2761,11 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,11 +2773,11 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2787,11 +2785,11 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,11 +2833,11 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,11 +2845,11 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,11 +2869,11 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2907,11 +2905,11 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,11 +2929,11 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,11 +2941,11 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,11 +2953,11 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,11 +2977,11 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,11 +2989,11 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,11 +3002,11 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3017,11 +3015,11 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,11 +3314,11 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3433,11 +3431,11 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,11 +3847,11 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4005,11 +4003,11 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,11 +5628,11 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5838,11 +5836,11 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -9192,11 +9190,11 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516">
         <f t="shared" si="14"/>
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -22621,11 +22619,11 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1549">
         <f t="shared" si="48"/>
-        <v>1547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
@@ -22686,11 +22684,11 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1554">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
@@ -26105,11 +26103,11 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1817">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1818" spans="1:3" x14ac:dyDescent="0.25">
